--- a/Lab2/table1.xlsx
+++ b/Lab2/table1.xlsx
@@ -26,7 +26,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,8 +62,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,303 +391,418 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C49D52-5065-4CE7-B293-26250840C264}">
-  <dimension ref="C4:P11"/>
+  <dimension ref="C4:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:P11"/>
+      <selection activeCell="I4" sqref="I4:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
         <v>990</v>
       </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
         <v>990</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>760</v>
+      </c>
+      <c r="D5" s="1">
+        <v>414</v>
+      </c>
+      <c r="E5" s="1">
+        <v>223</v>
+      </c>
+      <c r="F5" s="1">
+        <v>97</v>
+      </c>
+      <c r="I5" s="1">
+        <v>760</v>
+      </c>
+      <c r="J5" s="1">
+        <v>414</v>
+      </c>
+      <c r="K5" s="1">
+        <v>223</v>
+      </c>
+      <c r="L5" s="1">
+        <v>97</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1">
+        <v>137</v>
+      </c>
+      <c r="E6" s="1">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1">
+        <v>252</v>
+      </c>
+      <c r="J6" s="1">
+        <v>137</v>
+      </c>
+      <c r="K6" s="1">
+        <v>73</v>
+      </c>
+      <c r="L6" s="1">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>75</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>75</v>
+      </c>
+      <c r="J7" s="1">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>24</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="P4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C5">
-        <v>760</v>
-      </c>
-      <c r="D5">
-        <v>414</v>
-      </c>
-      <c r="E5">
-        <v>223</v>
-      </c>
-      <c r="F5">
-        <v>97</v>
-      </c>
-      <c r="I5">
-        <v>760</v>
-      </c>
-      <c r="J5">
-        <v>414</v>
-      </c>
-      <c r="K5">
-        <v>223</v>
-      </c>
-      <c r="L5">
-        <v>97</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>-1</v>
-      </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>252</v>
-      </c>
-      <c r="D6">
-        <v>137</v>
-      </c>
-      <c r="E6">
-        <v>73</v>
-      </c>
-      <c r="F6">
-        <v>31</v>
-      </c>
-      <c r="I6">
-        <v>252</v>
-      </c>
-      <c r="J6">
-        <v>137</v>
-      </c>
-      <c r="K6">
-        <v>73</v>
-      </c>
-      <c r="L6">
-        <v>31</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>-1</v>
-      </c>
-      <c r="P6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <v>40</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
+      <c r="D9" s="1">
+        <v>990</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
         <v>8</v>
       </c>
-      <c r="I7">
-        <v>75</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>24</v>
-      </c>
-      <c r="J8">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>8</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C9">
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>990</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>0</v>
       </c>
     </row>
